--- a/artfynd/A 48875-2022.xlsx
+++ b/artfynd/A 48875-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56578869</v>
+        <v>62431696</v>
       </c>
       <c r="B2" t="n">
-        <v>98431</v>
+        <v>106964</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,20 +692,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222771</v>
+        <v>220299</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -716,14 +716,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Slätetorp 8450/3650, Nrk</t>
+          <t>Slätetorp 8650/3750, Nrk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>509968.2731811432</v>
+        <v>510065.9020111689</v>
       </c>
       <c r="R2" t="n">
-        <v>6536305.946611623</v>
+        <v>6536507.313482736</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -776,11 +776,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Bergbrant mot V och hygge</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57033780</v>
+        <v>56578869</v>
       </c>
       <c r="B3" t="n">
-        <v>104838</v>
+        <v>98431</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,20 +804,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219955</v>
+        <v>222771</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Arnica montana</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -833,14 +828,14 @@
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Slätetorp 7850/3950, Nrk</t>
+          <t>Slätetorp 8450/3650, Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>510275.6986101647</v>
+        <v>509968.2731811432</v>
       </c>
       <c r="R3" t="n">
-        <v>6535710.060134492</v>
+        <v>6536305.946611623</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -896,7 +891,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Hagartad skogskant</t>
+          <t>Bergbrant mot V och hygge</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1031,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62431696</v>
+        <v>57033780</v>
       </c>
       <c r="B5" t="n">
-        <v>106964</v>
+        <v>104838</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,20 +1038,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220299</v>
+        <v>219955</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Slåttergubbe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Arnica montana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1067,14 +1062,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Slätetorp 8650/3750, Nrk</t>
+          <t>Slätetorp 7850/3950, Nrk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510065.9020111689</v>
+        <v>510275.6986101647</v>
       </c>
       <c r="R5" t="n">
-        <v>6536507.313482736</v>
+        <v>6535710.060134492</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1127,6 +1122,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Hagartad skogskant</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">

--- a/artfynd/A 48875-2022.xlsx
+++ b/artfynd/A 48875-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62431696</v>
+        <v>56578869</v>
       </c>
       <c r="B2" t="n">
-        <v>106964</v>
+        <v>98431</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,20 +692,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220299</v>
+        <v>222771</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -716,14 +716,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Slätetorp 8650/3750, Nrk</t>
+          <t>Slätetorp 8450/3650, Nrk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>510065.9020111689</v>
+        <v>509968.2731811432</v>
       </c>
       <c r="R2" t="n">
-        <v>6536507.313482736</v>
+        <v>6536305.946611623</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -776,6 +776,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Bergbrant mot V och hygge</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56578869</v>
+        <v>57033780</v>
       </c>
       <c r="B3" t="n">
-        <v>98431</v>
+        <v>104838</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,20 +809,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222771</v>
+        <v>219955</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Slåttergubbe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Arnica montana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -828,14 +833,14 @@
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Slätetorp 8450/3650, Nrk</t>
+          <t>Slätetorp 7850/3950, Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>509968.2731811432</v>
+        <v>510275.6986101647</v>
       </c>
       <c r="R3" t="n">
-        <v>6536305.946611623</v>
+        <v>6535710.060134492</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -891,7 +896,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Bergbrant mot V och hygge</t>
+          <t>Hagartad skogskant</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1026,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57033780</v>
+        <v>62431696</v>
       </c>
       <c r="B5" t="n">
-        <v>104838</v>
+        <v>106964</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,20 +1043,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219955</v>
+        <v>220299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Arnica montana</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1062,14 +1067,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Slätetorp 7850/3950, Nrk</t>
+          <t>Slätetorp 8650/3750, Nrk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510275.6986101647</v>
+        <v>510065.9020111689</v>
       </c>
       <c r="R5" t="n">
-        <v>6535710.060134492</v>
+        <v>6536507.313482736</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1122,11 +1127,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Hagartad skogskant</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
